--- a/RL.xlsx
+++ b/RL.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Amazon\RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59ECB7F-EAF3-4E86-9397-66CB9D49E17C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A43F6-6A5D-4556-9E67-33FEBC417DBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1870" yWindow="1860" windowWidth="24660" windowHeight="14390" xr2:uid="{129590BB-D3DA-4BE5-9361-D8C843531687}"/>
+    <workbookView xWindow="2170" yWindow="1270" windowWidth="33640" windowHeight="16350" xr2:uid="{129590BB-D3DA-4BE5-9361-D8C843531687}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
     <sheet name="Terms" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk1980348" localSheetId="2">Sheet1!$A$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
   <si>
     <t>A3C</t>
   </si>
@@ -147,9 +149,6 @@
     <t>101-301</t>
   </si>
   <si>
-    <t>Toolkits/Frameworks</t>
-  </si>
-  <si>
     <t>Dopamine</t>
   </si>
   <si>
@@ -321,13 +320,7 @@
     <t>AI2Thor</t>
   </si>
   <si>
-    <t>Tutorials/Tools</t>
-  </si>
-  <si>
     <t>MDP-Toolbox</t>
-  </si>
-  <si>
-    <t>Python</t>
   </si>
   <si>
     <t>Intrinsic Curiosity Module</t>
@@ -543,24 +536,9 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Actor-Critic</t>
-  </si>
-  <si>
-    <t>Policy Gradient</t>
-  </si>
-  <si>
-    <t>Value Based</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>Genetic Algo</t>
-  </si>
-  <si>
     <t>TDM</t>
   </si>
   <si>
@@ -660,14 +638,95 @@
     <t>Code     /Implementation</t>
   </si>
   <si>
-    <t>r</t>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>Denny Britz</t>
+  </si>
+  <si>
+    <t>David Silver</t>
+  </si>
+  <si>
+    <t>Algos 4 RL</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Mathematical</t>
+  </si>
+  <si>
+    <t>David Silver Course</t>
+  </si>
+  <si>
+    <t>Courses/Tutorials/Tools</t>
+  </si>
+  <si>
+    <t>Berkley CS294-112</t>
+  </si>
+  <si>
+    <t>Georgia Tech (Udacity)</t>
+  </si>
+  <si>
+    <t>Uwaterloo CS885</t>
+  </si>
+  <si>
+    <t>DP and Optimal Control</t>
+  </si>
+  <si>
+    <t>MDP and AI</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>π</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>APEX</t>
+  </si>
+  <si>
+    <t>Distributed Prioritized Experience Replay</t>
+  </si>
+  <si>
+    <t>Combined Improvements in Deep RL</t>
+  </si>
+  <si>
+    <t>OpenAI SpinningUp</t>
+  </si>
+  <si>
+    <t>Berkley RL fundamentals</t>
+  </si>
+  <si>
+    <t>100-300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,6 +835,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -844,21 +923,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,37 +945,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,9 +979,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,939 +1298,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAE0B00-E14C-44CE-B78C-E2CCB3D8BF4C}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" customWidth="1"/>
-    <col min="17" max="17" width="6.54296875" customWidth="1"/>
-    <col min="18" max="18" width="19.6328125" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="25">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="9">
+        <v>100</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="9">
+        <v>100</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="9">
+        <v>200</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="11">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="9">
+        <v>300</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="9">
+        <v>100</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="9">
+        <v>300</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34">
-        <v>2002</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>101</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>101</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>101</v>
-      </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>301</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="34">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="25">
         <v>2018</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B27" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="34">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{674BED5C-48F6-41D8-A6F2-78627AC197F9}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{0A40879D-C519-4387-B8EB-7BA7856FDBBE}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{EBA41A02-4410-43AB-B5CD-8D2C8D227B8A}"/>
-    <hyperlink ref="D10" r:id="rId4" xr:uid="{E2E5B5BD-309B-4939-9E4E-4A39E04EAB8C}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{D913C1BE-C41D-4263-9C22-FA40161F0EAC}"/>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{F6A19AF5-31AF-47C1-9CD4-0E062ED03810}"/>
-    <hyperlink ref="K3" r:id="rId7" xr:uid="{8C762986-D5D3-48BD-BBF5-01C1305ABFDE}"/>
-    <hyperlink ref="P2" r:id="rId8" xr:uid="{35E2D022-63EB-45D2-A2F4-D20A2771EA89}"/>
-    <hyperlink ref="P3" r:id="rId9" display="eBook" xr:uid="{F6F7C98F-F4B3-477B-ACA6-D08DD2BE0684}"/>
-    <hyperlink ref="K4" r:id="rId10" xr:uid="{8B31FA48-7AB1-4D72-B7D8-9B244BE3DF89}"/>
-    <hyperlink ref="R2" r:id="rId11" xr:uid="{E44224E2-1F6E-42F1-AF0B-4610317310B1}"/>
-    <hyperlink ref="T2" r:id="rId12" xr:uid="{53A56FCF-0118-46AD-BDC0-3A42B0CB4B3D}"/>
-    <hyperlink ref="P4" r:id="rId13" display="FreeCodeCamp" xr:uid="{9DD0CC34-F962-4016-ABEE-4560A034E272}"/>
-    <hyperlink ref="P5" r:id="rId14" xr:uid="{67CDF7EA-0F17-4853-9EF0-15915902AF51}"/>
-    <hyperlink ref="K5" r:id="rId15" xr:uid="{AD3EBEA9-8C1A-4EA2-A72B-B52519097DEB}"/>
-    <hyperlink ref="M2" r:id="rId16" display="Gym" xr:uid="{52C0A5F0-B191-4B95-B590-71EA27FF1CE0}"/>
-    <hyperlink ref="D7" r:id="rId17" xr:uid="{FF41B58C-3661-4F94-9E93-8E41A5527096}"/>
-    <hyperlink ref="P6" r:id="rId18" xr:uid="{8A3AD74B-7C85-428E-8320-E25B4C7D2E4C}"/>
-    <hyperlink ref="K6" r:id="rId19" xr:uid="{8AA21B63-7B77-4CCE-B701-7FB0E01CC634}"/>
-    <hyperlink ref="P7" r:id="rId20" xr:uid="{D2EC756C-7436-4DD8-8065-6F82D08EB008}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{4F3158FE-B9CB-482A-BE82-BD36615BAE17}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{E6A4168C-DBD1-4398-8939-CC76C9485A9A}"/>
-    <hyperlink ref="D4" r:id="rId23" xr:uid="{4AE2C27E-F203-4530-8215-42716D0E46A7}"/>
-    <hyperlink ref="D8" r:id="rId24" xr:uid="{F08486E4-AA65-4C31-AA08-71873A3AFB8B}"/>
-    <hyperlink ref="D16" r:id="rId25" xr:uid="{551FD7DA-94DE-419C-96CD-947E62BC21DD}"/>
-    <hyperlink ref="D12" r:id="rId26" xr:uid="{CB1882A7-0D5A-4DF1-9CD8-71739D951B0E}"/>
-    <hyperlink ref="M3" r:id="rId27" xr:uid="{649C36B3-CF4D-46CB-8697-2A8EC5AA3204}"/>
-    <hyperlink ref="T3" r:id="rId28" location="publications" xr:uid="{E181016B-4383-473E-926E-68FEC3340346}"/>
-    <hyperlink ref="D2" r:id="rId29" xr:uid="{130E09CB-C6FA-4549-9EEB-190D97ABFAB7}"/>
-    <hyperlink ref="E2" r:id="rId30" xr:uid="{261E3F60-B4F8-4B3C-ABB9-1DC61FE0AFA5}"/>
-    <hyperlink ref="N4" r:id="rId31" xr:uid="{3180D9E8-1BD2-4713-B8B3-8761A3CE0E38}"/>
-    <hyperlink ref="M4" r:id="rId32" xr:uid="{31BC3C52-14A1-41F0-A65F-0297BA4516C8}"/>
-    <hyperlink ref="M5" r:id="rId33" xr:uid="{7F2743CC-5F93-44A2-A17E-E049B73C2B2E}"/>
-    <hyperlink ref="M6" r:id="rId34" xr:uid="{8A573319-7117-4D96-8480-80A7B0E9239C}"/>
-    <hyperlink ref="K7" r:id="rId35" xr:uid="{666D8FDE-473B-49CF-AF7A-91270297AEF2}"/>
-    <hyperlink ref="T4" r:id="rId36" xr:uid="{4066AC76-8AA8-4416-83C2-A0A84B21C28E}"/>
-    <hyperlink ref="M7" r:id="rId37" xr:uid="{976D8EA9-786B-4BAF-9E60-86C784EC70C8}"/>
-    <hyperlink ref="M8" r:id="rId38" xr:uid="{72ED8F16-5A3F-4C1D-9A18-B1017D6136D8}"/>
-    <hyperlink ref="U2" r:id="rId39" xr:uid="{152F5DE4-A2C9-49D5-9EB9-D31572A4D576}"/>
-    <hyperlink ref="M9" r:id="rId40" xr:uid="{D30E46E2-25CD-4E46-ADDF-68B97BA7D9C3}"/>
-    <hyperlink ref="M10" r:id="rId41" xr:uid="{5229FF69-897C-450D-AEE2-152B0B8DB707}"/>
-    <hyperlink ref="U3" r:id="rId42" xr:uid="{FF1DB636-DEE4-4023-BA31-7DFEFB6E0470}"/>
-    <hyperlink ref="M11" r:id="rId43" xr:uid="{27C74B4D-A195-4B80-BCA2-708024DC9EB8}"/>
-    <hyperlink ref="M12" r:id="rId44" xr:uid="{036401AE-A4AA-43FB-A62D-68DD10500895}"/>
-    <hyperlink ref="R3" r:id="rId45" xr:uid="{C1965B96-4595-4AA9-8DF9-D2AE68304F59}"/>
-    <hyperlink ref="D15" r:id="rId46" xr:uid="{4B3AA2BF-39EB-46D6-9A66-8DFB0FA1DA6E}"/>
-    <hyperlink ref="E15" r:id="rId47" xr:uid="{1B0FA600-3A9B-4264-B41C-2E75FDB394BC}"/>
-    <hyperlink ref="D13" r:id="rId48" xr:uid="{105226A3-6BDA-4312-A2AD-DDEE14EC7CD7}"/>
-    <hyperlink ref="D17" r:id="rId49" xr:uid="{6D4FA766-39FB-4F47-A84A-82187DD26CB5}"/>
-    <hyperlink ref="L7" r:id="rId50" xr:uid="{A378EBDB-B7B5-4B01-8449-E469960FA8F0}"/>
-    <hyperlink ref="R4" r:id="rId51" xr:uid="{68E212BB-4586-4BA0-9C1A-BA6D624243E9}"/>
-    <hyperlink ref="O4" r:id="rId52" xr:uid="{CEF36D8E-8350-4D8C-A89A-DE0C931B1A72}"/>
-    <hyperlink ref="M13" r:id="rId53" xr:uid="{641D95B6-423E-4688-B211-52EEF662EA0F}"/>
-    <hyperlink ref="M14" r:id="rId54" xr:uid="{701E995C-9D3E-4F6E-984B-CC7D09698B29}"/>
-    <hyperlink ref="D18" r:id="rId55" display="Soft Actor Critic" xr:uid="{C22927F8-AE40-429D-9BEE-F6D7806E67EC}"/>
-    <hyperlink ref="D5" r:id="rId56" xr:uid="{0526A4EB-A77A-4D77-AF81-14D89ACFF87D}"/>
-    <hyperlink ref="D19" r:id="rId57" xr:uid="{CA003715-8980-4440-B4CD-464322E69E2E}"/>
-    <hyperlink ref="D20" r:id="rId58" display="FAE" xr:uid="{543C614C-730E-467B-8F29-F1AE35EE11D1}"/>
-    <hyperlink ref="D21" r:id="rId59" xr:uid="{CEA62F46-1AB0-41E7-9715-C6E9E298B8E5}"/>
-    <hyperlink ref="D22" r:id="rId60" xr:uid="{99308067-EFFD-4F5C-92FB-AB5A6A36E84D}"/>
-    <hyperlink ref="I21" r:id="rId61" display="pySACQ" xr:uid="{D60448ED-3DA8-4C42-8CA1-4298A3313211}"/>
-    <hyperlink ref="I20" r:id="rId62" display="TD3 (pyTorch)" xr:uid="{4DDA66BA-02EA-4382-B8B4-AF592BDCE340}"/>
-    <hyperlink ref="I3" r:id="rId63" display="TD3 (pyTorch)" xr:uid="{6C8986E3-D8EF-4865-811A-B666AFF58BEB}"/>
-    <hyperlink ref="I16" r:id="rId64" xr:uid="{9BEE060E-22CC-4ECB-ABF1-BAADB47005FB}"/>
-    <hyperlink ref="I18" r:id="rId65" xr:uid="{97CADDBB-DCB0-4CD4-B352-88CDFDA920B0}"/>
-    <hyperlink ref="I4" r:id="rId66" xr:uid="{529D6CD0-994B-4C72-ACFA-E3EC98808CD9}"/>
-    <hyperlink ref="D23" r:id="rId67" xr:uid="{0FBC14F1-3AC9-4783-91B9-E96E9AC34125}"/>
-    <hyperlink ref="I23" r:id="rId68" xr:uid="{150CB2BA-21B5-4B0F-8D69-E40895A47079}"/>
-    <hyperlink ref="I22" r:id="rId69" xr:uid="{E9962AAF-E738-481F-9517-BE4D5FE73C9B}"/>
-    <hyperlink ref="D24" r:id="rId70" xr:uid="{3EC1C8B9-7203-45C3-B729-753BE8FBC41A}"/>
-    <hyperlink ref="I24" r:id="rId71" xr:uid="{6265D5A0-18B9-4A95-A022-02D3756617C7}"/>
-    <hyperlink ref="D25" r:id="rId72" xr:uid="{0FB58741-7A98-4D16-9E41-A6B66241E06F}"/>
-    <hyperlink ref="I25" r:id="rId73" xr:uid="{C32751F6-EFC6-47F4-AC3E-7CA1C720AB3F}"/>
-    <hyperlink ref="J22" r:id="rId74" xr:uid="{7D246978-F024-4010-A676-E07284DFE5DE}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{674BED5C-48F6-41D8-A6F2-78627AC197F9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0A40879D-C519-4387-B8EB-7BA7856FDBBE}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{EBA41A02-4410-43AB-B5CD-8D2C8D227B8A}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{E2E5B5BD-309B-4939-9E4E-4A39E04EAB8C}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{D913C1BE-C41D-4263-9C22-FA40161F0EAC}"/>
+    <hyperlink ref="K19" r:id="rId6" xr:uid="{F6A19AF5-31AF-47C1-9CD4-0E062ED03810}"/>
+    <hyperlink ref="J16" r:id="rId7" xr:uid="{8C762986-D5D3-48BD-BBF5-01C1305ABFDE}"/>
+    <hyperlink ref="M8" r:id="rId8" xr:uid="{35E2D022-63EB-45D2-A2F4-D20A2771EA89}"/>
+    <hyperlink ref="M2" r:id="rId9" display="eBook" xr:uid="{F6F7C98F-F4B3-477B-ACA6-D08DD2BE0684}"/>
+    <hyperlink ref="J17" r:id="rId10" xr:uid="{8B31FA48-7AB1-4D72-B7D8-9B244BE3DF89}"/>
+    <hyperlink ref="O2" r:id="rId11" xr:uid="{E44224E2-1F6E-42F1-AF0B-4610317310B1}"/>
+    <hyperlink ref="Q2" r:id="rId12" xr:uid="{53A56FCF-0118-46AD-BDC0-3A42B0CB4B3D}"/>
+    <hyperlink ref="M4" r:id="rId13" display="FreeCodeCamp" xr:uid="{9DD0CC34-F962-4016-ABEE-4560A034E272}"/>
+    <hyperlink ref="M5" r:id="rId14" xr:uid="{67CDF7EA-0F17-4853-9EF0-15915902AF51}"/>
+    <hyperlink ref="J2" r:id="rId15" display="Gym" xr:uid="{52C0A5F0-B191-4B95-B590-71EA27FF1CE0}"/>
+    <hyperlink ref="C7" r:id="rId16" xr:uid="{FF41B58C-3661-4F94-9E93-8E41A5527096}"/>
+    <hyperlink ref="M6" r:id="rId17" xr:uid="{8A3AD74B-7C85-428E-8320-E25B4C7D2E4C}"/>
+    <hyperlink ref="J15" r:id="rId18" xr:uid="{8AA21B63-7B77-4CCE-B701-7FB0E01CC634}"/>
+    <hyperlink ref="M7" r:id="rId19" xr:uid="{D2EC756C-7436-4DD8-8065-6F82D08EB008}"/>
+    <hyperlink ref="C14" r:id="rId20" xr:uid="{4F3158FE-B9CB-482A-BE82-BD36615BAE17}"/>
+    <hyperlink ref="C11" r:id="rId21" xr:uid="{E6A4168C-DBD1-4398-8939-CC76C9485A9A}"/>
+    <hyperlink ref="C4" r:id="rId22" xr:uid="{4AE2C27E-F203-4530-8215-42716D0E46A7}"/>
+    <hyperlink ref="C8" r:id="rId23" xr:uid="{F08486E4-AA65-4C31-AA08-71873A3AFB8B}"/>
+    <hyperlink ref="C18" r:id="rId24" xr:uid="{551FD7DA-94DE-419C-96CD-947E62BC21DD}"/>
+    <hyperlink ref="C12" r:id="rId25" xr:uid="{CB1882A7-0D5A-4DF1-9CD8-71739D951B0E}"/>
+    <hyperlink ref="J3" r:id="rId26" xr:uid="{649C36B3-CF4D-46CB-8697-2A8EC5AA3204}"/>
+    <hyperlink ref="Q3" r:id="rId27" location="publications" xr:uid="{E181016B-4383-473E-926E-68FEC3340346}"/>
+    <hyperlink ref="C2" r:id="rId28" xr:uid="{130E09CB-C6FA-4549-9EEB-190D97ABFAB7}"/>
+    <hyperlink ref="D2" r:id="rId29" xr:uid="{261E3F60-B4F8-4B3C-ABB9-1DC61FE0AFA5}"/>
+    <hyperlink ref="K4" r:id="rId30" xr:uid="{3180D9E8-1BD2-4713-B8B3-8761A3CE0E38}"/>
+    <hyperlink ref="J4" r:id="rId31" xr:uid="{31BC3C52-14A1-41F0-A65F-0297BA4516C8}"/>
+    <hyperlink ref="J5" r:id="rId32" xr:uid="{7F2743CC-5F93-44A2-A17E-E049B73C2B2E}"/>
+    <hyperlink ref="J6" r:id="rId33" xr:uid="{8A573319-7117-4D96-8480-80A7B0E9239C}"/>
+    <hyperlink ref="J18" r:id="rId34" xr:uid="{666D8FDE-473B-49CF-AF7A-91270297AEF2}"/>
+    <hyperlink ref="Q4" r:id="rId35" xr:uid="{4066AC76-8AA8-4416-83C2-A0A84B21C28E}"/>
+    <hyperlink ref="J7" r:id="rId36" xr:uid="{976D8EA9-786B-4BAF-9E60-86C784EC70C8}"/>
+    <hyperlink ref="J8" r:id="rId37" xr:uid="{72ED8F16-5A3F-4C1D-9A18-B1017D6136D8}"/>
+    <hyperlink ref="R2" r:id="rId38" xr:uid="{152F5DE4-A2C9-49D5-9EB9-D31572A4D576}"/>
+    <hyperlink ref="J9" r:id="rId39" xr:uid="{D30E46E2-25CD-4E46-ADDF-68B97BA7D9C3}"/>
+    <hyperlink ref="J10" r:id="rId40" xr:uid="{5229FF69-897C-450D-AEE2-152B0B8DB707}"/>
+    <hyperlink ref="R3" r:id="rId41" xr:uid="{FF1DB636-DEE4-4023-BA31-7DFEFB6E0470}"/>
+    <hyperlink ref="J11" r:id="rId42" xr:uid="{27C74B4D-A195-4B80-BCA2-708024DC9EB8}"/>
+    <hyperlink ref="J12" r:id="rId43" xr:uid="{036401AE-A4AA-43FB-A62D-68DD10500895}"/>
+    <hyperlink ref="O3" r:id="rId44" xr:uid="{C1965B96-4595-4AA9-8DF9-D2AE68304F59}"/>
+    <hyperlink ref="C15" r:id="rId45" xr:uid="{4B3AA2BF-39EB-46D6-9A66-8DFB0FA1DA6E}"/>
+    <hyperlink ref="D15" r:id="rId46" xr:uid="{1B0FA600-3A9B-4264-B41C-2E75FDB394BC}"/>
+    <hyperlink ref="C13" r:id="rId47" xr:uid="{105226A3-6BDA-4312-A2AD-DDEE14EC7CD7}"/>
+    <hyperlink ref="C19" r:id="rId48" xr:uid="{6D4FA766-39FB-4F47-A84A-82187DD26CB5}"/>
+    <hyperlink ref="K18" r:id="rId49" xr:uid="{A378EBDB-B7B5-4B01-8449-E469960FA8F0}"/>
+    <hyperlink ref="O4" r:id="rId50" xr:uid="{68E212BB-4586-4BA0-9C1A-BA6D624243E9}"/>
+    <hyperlink ref="L4" r:id="rId51" xr:uid="{CEF36D8E-8350-4D8C-A89A-DE0C931B1A72}"/>
+    <hyperlink ref="J13" r:id="rId52" xr:uid="{641D95B6-423E-4688-B211-52EEF662EA0F}"/>
+    <hyperlink ref="J14" r:id="rId53" xr:uid="{701E995C-9D3E-4F6E-984B-CC7D09698B29}"/>
+    <hyperlink ref="C20" r:id="rId54" display="Soft Actor Critic" xr:uid="{C22927F8-AE40-429D-9BEE-F6D7806E67EC}"/>
+    <hyperlink ref="C5" r:id="rId55" xr:uid="{0526A4EB-A77A-4D77-AF81-14D89ACFF87D}"/>
+    <hyperlink ref="C21" r:id="rId56" xr:uid="{CA003715-8980-4440-B4CD-464322E69E2E}"/>
+    <hyperlink ref="C22" r:id="rId57" display="FAE" xr:uid="{543C614C-730E-467B-8F29-F1AE35EE11D1}"/>
+    <hyperlink ref="C23" r:id="rId58" xr:uid="{CEA62F46-1AB0-41E7-9715-C6E9E298B8E5}"/>
+    <hyperlink ref="C24" r:id="rId59" xr:uid="{99308067-EFFD-4F5C-92FB-AB5A6A36E84D}"/>
+    <hyperlink ref="H23" r:id="rId60" display="pySACQ" xr:uid="{D60448ED-3DA8-4C42-8CA1-4298A3313211}"/>
+    <hyperlink ref="H22" r:id="rId61" display="TD3 (pyTorch)" xr:uid="{4DDA66BA-02EA-4382-B8B4-AF592BDCE340}"/>
+    <hyperlink ref="H3" r:id="rId62" display="TD3 (pyTorch)" xr:uid="{6C8986E3-D8EF-4865-811A-B666AFF58BEB}"/>
+    <hyperlink ref="H18" r:id="rId63" xr:uid="{9BEE060E-22CC-4ECB-ABF1-BAADB47005FB}"/>
+    <hyperlink ref="H20" r:id="rId64" xr:uid="{97CADDBB-DCB0-4CD4-B352-88CDFDA920B0}"/>
+    <hyperlink ref="H4" r:id="rId65" xr:uid="{529D6CD0-994B-4C72-ACFA-E3EC98808CD9}"/>
+    <hyperlink ref="C25" r:id="rId66" xr:uid="{0FBC14F1-3AC9-4783-91B9-E96E9AC34125}"/>
+    <hyperlink ref="H25" r:id="rId67" xr:uid="{150CB2BA-21B5-4B0F-8D69-E40895A47079}"/>
+    <hyperlink ref="H24" r:id="rId68" xr:uid="{E9962AAF-E738-481F-9517-BE4D5FE73C9B}"/>
+    <hyperlink ref="C26" r:id="rId69" xr:uid="{3EC1C8B9-7203-45C3-B729-753BE8FBC41A}"/>
+    <hyperlink ref="H26" r:id="rId70" xr:uid="{6265D5A0-18B9-4A95-A022-02D3756617C7}"/>
+    <hyperlink ref="C27" r:id="rId71" xr:uid="{0FB58741-7A98-4D16-9E41-A6B66241E06F}"/>
+    <hyperlink ref="H27" r:id="rId72" xr:uid="{C32751F6-EFC6-47F4-AC3E-7CA1C720AB3F}"/>
+    <hyperlink ref="I24" r:id="rId73" xr:uid="{7D246978-F024-4010-A676-E07284DFE5DE}"/>
+    <hyperlink ref="I4" r:id="rId74" xr:uid="{ED819451-CE6D-4470-B5E8-AFFACEFD7079}"/>
+    <hyperlink ref="O5" r:id="rId75" xr:uid="{CAA3ED07-8925-477D-B6CE-5BB01D1C68B4}"/>
+    <hyperlink ref="Q5" r:id="rId76" xr:uid="{A43AADF2-D51E-4785-A3A1-CA9F6E8B286C}"/>
+    <hyperlink ref="M3" r:id="rId77" xr:uid="{F8E4DBA9-D693-4029-A0F1-2FE9261DDD18}"/>
+    <hyperlink ref="O6" r:id="rId78" xr:uid="{2F1136A6-61FD-44CD-80CD-7DDCAAD1A9DE}"/>
+    <hyperlink ref="O7" r:id="rId79" xr:uid="{17A323D4-DEBE-43BD-B4A4-F911A81329C5}"/>
+    <hyperlink ref="O8" r:id="rId80" xr:uid="{5278B65B-267F-4573-875E-D3DADA093307}"/>
+    <hyperlink ref="O9" r:id="rId81" xr:uid="{68F8DFDB-FF19-4419-9D6B-3E4CF178943E}"/>
+    <hyperlink ref="M9" r:id="rId82" xr:uid="{A866683D-D890-4D9D-9422-48F7F953B142}"/>
+    <hyperlink ref="M10" r:id="rId83" xr:uid="{1E7228AE-10D2-4EA4-8856-51680E796420}"/>
+    <hyperlink ref="C16" r:id="rId84" xr:uid="{5F05C032-2316-4702-B525-EBFCEC6BB7D9}"/>
+    <hyperlink ref="C17" r:id="rId85" xr:uid="{6836C179-2DE0-4A33-A5C5-5C0BFBFFE16B}"/>
+    <hyperlink ref="O11" r:id="rId86" xr:uid="{19D7F7F7-3CD4-4CEA-B300-7E0B744458FE}"/>
+    <hyperlink ref="O10" r:id="rId87" xr:uid="{B3001150-2424-45AA-B29A-34AB8BB0E5F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -2241,16 +2248,16 @@
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2260,52 +2267,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACDB584-89E8-4618-B70C-83D05D498E5A}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="5.0999999999999996">
+      <c r="A3" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A2" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="A4" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="5.0999999999999996">
-      <c r="A3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A4" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.5" x14ac:dyDescent="1">
+      <c r="A6" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.5" x14ac:dyDescent="1">
+      <c r="A7" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A8" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
